--- a/data/long_bre/P24_2-Urba-long_bre.xlsx
+++ b/data/long_bre/P24_2-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-9,93%</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>32,75%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-16,29%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17,2%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>37,07%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 8,64</t>
+          <t>-1,47; 8,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 3,22</t>
+          <t>-8,22; 2,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 6,5</t>
+          <t>-3,9; 7,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 91,79</t>
+          <t>-2,91; 8,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,74; 27,1</t>
+          <t>-0,21; 11,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 38,03</t>
+          <t>-10,47; 87,93</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-39,58; 17,33</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-16,39; 44,03</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-14,28; 69,97</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 86,96</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-6,32</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-2,73</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-3,11</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-6,64</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,06</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,44</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-9,24%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,72%</t>
+          <t>-7,59</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,84%</t>
+          <t>-8,86%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-4,26%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-4,88%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-9,91%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-12,32%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 0,09</t>
+          <t>-11,78; 0,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 4,13</t>
+          <t>-10,45; 4,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 3,91</t>
+          <t>-9,88; 3,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 0,25</t>
+          <t>-15,08; 0,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 6,96</t>
+          <t>-14,81; 1,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 6,55</t>
+          <t>-15,73; 0,41</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-15,29; 8,05</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-14,19; 5,57</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-21,08; 0,71</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-22,66; 2,39</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>28,85%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22,94%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,22%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 7,74</t>
+          <t>-2,67; 7,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 9,82</t>
+          <t>-1,59; 11,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 5,37</t>
+          <t>-3,7; 5,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 55,59</t>
+          <t>-2,39; 9,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 60,93</t>
+          <t>-6,56; 8,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 39,83</t>
+          <t>-13,94; 55,82</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,9; 70,63</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-19,42; 39,11</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-12,39; 73,69</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-24,48; 44,2</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,73%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 3,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 5,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 7,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,83; 36,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 38,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 48,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,86%</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,98%</t>
+          <t>-6,77%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,73%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,34%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>15,81%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 5,76</t>
+          <t>-5,37; 4,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 12,9</t>
+          <t>-9,44; 5,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 0,93</t>
+          <t>-3,34; 7,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 8,69</t>
+          <t>-6,53; 5,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 23,19</t>
+          <t>-7,12; 14,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 1,28</t>
+          <t>-35,67; 42,79</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-39,9; 42,15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-16,47; 46,41</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-33,78; 47,58</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-32,94; 106,03</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>-5,41</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>-9,28</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,1%</t>
+          <t>-7,23</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>-1,81%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-8,21%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-13,66%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-11,39%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 9,1</t>
+          <t>-8,61; 6,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 5,08</t>
+          <t>-4,82; 12,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 9,76</t>
+          <t>-12,14; 1,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 70,94</t>
+          <t>-17,73; -1,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,14; 28,67</t>
+          <t>-22,26; 6,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 79,94</t>
+          <t>-11,54; 9,85</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-7,03; 22,04</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-17,54; 2,26</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-24,33; -1,65</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-31,94; 11,25</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,82</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>182,97%</t>
+          <t>8,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-21,43%</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>51,38%</t>
+          <t>12,28%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-10,78%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>22,42%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>54,5%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>23,34%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,85; 21,16</t>
+          <t>-5,79; 8,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 7,18</t>
+          <t>-8,82; 3,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 12,4</t>
+          <t>-2,12; 8,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,33; 571,99</t>
+          <t>2,39; 16,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-69,71; 71,61</t>
+          <t>-6,11; 17,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,79; 190,3</t>
+          <t>-26,12; 61,62</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-36,31; 19,85</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-12,08; 66,74</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7,68; 124,68</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-26,55; 132,29</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-13,87%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,45%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 9,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 22,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 1,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,69; 14,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 45,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,34; 1,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>10,63</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-5,74</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,67</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-8,14%</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-13,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>141,3%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-28,61%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>58,09%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>116,59%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 11,7</t>
+          <t>0,27; 20,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 8,43</t>
+          <t>-26,51; 6,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 17,94</t>
+          <t>-1,81; 13,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-64,51; 94,1</t>
+          <t>-0,89; 15,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-55,27; 61,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 163,6</t>
+          <t>-8,65; 485,02</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-73,08; 60,23</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-21,35; 234,94</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-22,28; 580,6</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>-11,16</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27,33%</t>
+          <t>-10,1</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-10,14%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>-4,63%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>13,75%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-15,0%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-15,33%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 6,48</t>
+          <t>-16,08; 18,73</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 2,46</t>
+          <t>-7,09; 24,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 5,95</t>
+          <t>-22,23; 1,75</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 68,4</t>
+          <t>-27,73; 17,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-32,63; 16,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 37,44</t>
+          <t>-20,13; 35,38</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-9,68; 51,8</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-28,38; 1,73</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-36,94; 37,18</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>-7,41</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-7,32%</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-7,55%</t>
+          <t>-32,23%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-12,38%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>35,15%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>10,45%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,58; -0,67</t>
+          <t>-32,06; 4,95</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 6,33</t>
+          <t>-13,62; 9,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,29; -0,1</t>
+          <t>-4,27; 15,79</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,26; -0,98</t>
+          <t>-24,08; 19,49</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 10,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,53; -0,15</t>
+          <t>-75,66; 33,56</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-52,65; 72,26</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-21,32; 146,97</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-52,69; 119,94</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,539 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 6,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 5,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 5,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 41,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 31,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 45,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-2,23</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>5,02</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>24,19%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-12,99%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>13,82%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>16,34%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>31,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 5,93</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-7,06; 1,38</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 6,09</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 6,42</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 9,73</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-7,1; 60,03</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-34,37; 9,42</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 36,9</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-8,92; 52,9</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 70,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-3,96</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-5,04</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-8,06</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-7,56</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-5,61%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-7,64%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-11,98%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-12,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-8,68; 1,08</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 5,98</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; -0,71</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-13,64; -1,73</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-14,18; -0,24</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-11,89; 1,55</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-6,06; 10,03</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-13,74; -1,06</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-19,36; -2,78</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-21,35; -0,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>5,66</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>6,41%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>7,86%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>31,31%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>11,51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 5,01</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 5,63</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 5,75</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 10,12</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-4,62; 8,35</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-17,08; 33,55</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-14,49; 32,57</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 40,85</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 64,5</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-18,46; 43,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_2-Urba-long_bre.xlsx
+++ b/data/long_bre/P24_2-Urba-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -868,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1214,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1434,7 +1434,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1536,7 +1536,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1756,7 +1756,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1870,7 +1870,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
